--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_14-57.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_14-57.xlsx
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>SHOMA CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
     <t>TRIACTIN 4MG 20 TAB</t>
@@ -1485,17 +1494,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1503,7 +1512,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1511,13 +1520,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1529,7 +1538,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1537,17 +1546,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1563,17 +1572,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1581,7 +1590,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1589,13 +1598,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1615,13 +1624,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>20</v>
+        <v>2.5</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1633,7 +1642,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1641,17 +1650,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1667,17 +1676,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1685,7 +1694,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1693,17 +1702,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1711,7 +1720,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1719,17 +1728,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1737,7 +1746,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1745,17 +1754,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1763,7 +1772,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1771,17 +1780,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1789,7 +1798,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1797,13 +1806,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1815,7 +1824,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1823,13 +1832,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1841,7 +1850,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1849,17 +1858,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1867,7 +1876,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1875,13 +1884,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1907,45 +1916,97 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="K46" s="10">
-        <v>2583.8299999999999</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" ht="24.75" customHeight="1">
+      <c r="A46" s="6">
+        <v>43</v>
+      </c>
+      <c t="s" r="B46" s="7">
         <v>78</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c t="s" r="F47" s="12">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c t="s" r="H46" s="8">
+        <v>9</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9">
+        <v>70</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c t="s" r="N46" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="6">
+        <v>44</v>
+      </c>
+      <c t="s" r="B47" s="7">
         <v>79</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
-      <c t="s" r="I47" s="14">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c t="s" r="H47" s="8">
         <v>80</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9">
+        <v>45</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c t="s" r="N47" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" ht="25.5" customHeight="1">
+      <c r="K48" s="10">
+        <v>2627.8299999999999</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+    </row>
+    <row r="49" ht="17.25" customHeight="1">
+      <c t="s" r="A49" s="11">
+        <v>81</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c t="s" r="F49" s="12">
+        <v>82</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13"/>
+      <c t="s" r="I49" s="14">
+        <v>83</v>
+      </c>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="143">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2079,10 +2140,16 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:N49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
